--- a/biology/Médecine/Loi_relative_à_l'assurance_maladie/Loi_relative_à_l'assurance_maladie.xlsx
+++ b/biology/Médecine/Loi_relative_à_l'assurance_maladie/Loi_relative_à_l'assurance_maladie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loi_relative_%C3%A0_l%27assurance_maladie</t>
+          <t>Loi_relative_à_l'assurance_maladie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La loi du 13 août 2004 relative à l’assurance maladie est un texte législatif français initié par le ministre chargé des Affaires sociales Philippe Douste-Blazy.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loi_relative_%C3%A0_l%27assurance_maladie</t>
+          <t>Loi_relative_à_l'assurance_maladie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,23 +523,25 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Titre 1er dispositions relatives à l’offre de soin et de la maîtrise médicalisée des dépenses de santé
-création du dossier médical personnel[1],
-création de la haute Autorité de santé[2],
-création du médecin traitant[3],
-dispositions permettant le lancement de la carte Vitale 2[4] ;
+création du dossier médical personnel,
+création de la haute Autorité de santé,
+création du médecin traitant,
+dispositions permettant le lancement de la carte Vitale 2 ;
 Titre II dispositions relatives à l’organisation de l’assurance maladie
-création du comité d'alerte sur les dépenses d'assurance-maladie[5],
-création de la participation forfaitaire[6],
-création des unions nationales des caisses d'assurance maladie, des organismes d'assurance maladie complémentaire et des professions de santé[7],
-création de l’Aide au paiement d'une complémentaire santé[8],
-création d’une mission régionale de santé constituée entre l’agence régionale de l'hospitalisation et l’union régionale des caisses d’assurance maladie (préfiguration de l’agence régionale de santé)[9] :
+création du comité d'alerte sur les dépenses d'assurance-maladie,
+création de la participation forfaitaire,
+création des unions nationales des caisses d'assurance maladie, des organismes d'assurance maladie complémentaire et des professions de santé,
+création de l’Aide au paiement d'une complémentaire santé,
+création d’une mission régionale de santé constituée entre l’agence régionale de l'hospitalisation et l’union régionale des caisses d’assurance maladie (préfiguration de l’agence régionale de santé) :
 Titre III dispositions relatives au financement de l’assurance maladie
-augmentation de la contribution sociale généralisée[10],
-création de la contribution additionnelle à la contribution sociale de solidarité des sociétés[11],
-transfert d’une partie de la dette sociale à la Caisse d'amortissement de la dette sociale[12].</t>
+augmentation de la contribution sociale généralisée,
+création de la contribution additionnelle à la contribution sociale de solidarité des sociétés,
+transfert d’une partie de la dette sociale à la Caisse d'amortissement de la dette sociale.</t>
         </is>
       </c>
     </row>
